--- a/Python/Result/ARIMA_mae.xlsx
+++ b/Python/Result/ARIMA_mae.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>CA</t>
   </si>
@@ -33,19 +33,10 @@
     <t>JP</t>
   </si>
   <si>
-    <t>KO</t>
-  </si>
-  <si>
     <t>Random  Walk</t>
   </si>
   <si>
     <t>Random Walk(with drift)</t>
-  </si>
-  <si>
-    <t>ARMA(1,1)</t>
-  </si>
-  <si>
-    <t>ARMA(2,0)</t>
   </si>
   <si>
     <t>ARIMA(1,1,0)</t>
@@ -57,9 +48,6 @@
     <t>ARIMA(1,1,1)</t>
   </si>
   <si>
-    <t>hybrid ARIMA</t>
-  </si>
-  <si>
     <t>UnobservedComponentModel</t>
   </si>
   <si>
@@ -68,20 +56,53 @@
   <si>
     <t>EU</t>
   </si>
+  <si>
+    <t>KO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH-reduced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.000000_);[Red]\(0.000000\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -105,20 +126,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -134,7 +166,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -396,56 +428,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -458,62 +482,62 @@
         <v>1.48782681196777E-2</v>
       </c>
       <c r="E2" s="3">
-        <v>1.41940268359491E-2</v>
+        <v>1.38839694349208E-2</v>
       </c>
       <c r="F2" s="3">
-        <v>1.40274703030102E-2</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1.38839694349208E-2</v>
+        <v>1.4027321602875301E-2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.3871E-2</v>
       </c>
       <c r="H2" s="3">
-        <v>1.4027321602875301E-2</v>
-      </c>
-      <c r="I2" s="3">
+        <v>1.40791266879918E-2</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2">
+        <f>MIN(C2:H2)</f>
         <v>1.3871E-2</v>
       </c>
-      <c r="J2" s="3">
-        <v>1.3887999999999999E-2</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1.40791266879918E-2</v>
+      <c r="K2" s="5">
+        <f>MIN(D2:H2)</f>
+        <v>1.3871E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="1"/>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" s="3">
         <v>2.96522893180028E-2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>2.9485598973595199E-2</v>
       </c>
       <c r="E3" s="3">
-        <v>3.2557351746921703E-2</v>
+        <v>3.14226359024804E-2</v>
       </c>
       <c r="F3" s="3">
-        <v>3.4744092421626502E-2</v>
+        <v>2.9756764704932302E-2</v>
       </c>
       <c r="G3" s="3">
-        <v>3.14226359024804E-2</v>
+        <v>3.1023999999999999E-2</v>
       </c>
       <c r="H3" s="3">
-        <v>2.9756764704932302E-2</v>
-      </c>
-      <c r="I3" s="3">
-        <v>3.1023999999999999E-2</v>
-      </c>
-      <c r="J3" s="3">
-        <v>3.0623999999999998E-2</v>
-      </c>
-      <c r="K3" s="3">
         <v>3.1034495642873399E-2</v>
       </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2">
+        <f>MIN(C3:H3)</f>
+        <v>2.9485598973595199E-2</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:K29" si="0">MIN(D3:H3)</f>
+        <v>2.9485598973595199E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1"/>
       <c r="B4">
         <v>6</v>
       </c>
@@ -524,739 +548,891 @@
         <v>4.1973910183612802E-2</v>
       </c>
       <c r="E4" s="3">
-        <v>4.9529058838012098E-2</v>
+        <v>4.1627221687735402E-2</v>
       </c>
       <c r="F4" s="3">
-        <v>5.3565525543428201E-2</v>
+        <v>4.1583572296535302E-2</v>
       </c>
       <c r="G4" s="3">
-        <v>4.1627221687735402E-2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>4.1583572296535302E-2</v>
-      </c>
-      <c r="I4" s="3">
         <v>4.0680000000000001E-2</v>
       </c>
-      <c r="J4" s="3">
-        <v>4.1189999999999997E-2</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="H4" s="4">
         <v>3.9506768017939897E-2</v>
       </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2">
+        <f>MIN(C4:H4)</f>
+        <v>3.9506768017939897E-2</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="0"/>
+        <v>3.9506768017939897E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
       <c r="B5">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>6.6675823087499406E-2</v>
       </c>
       <c r="D5" s="3">
         <v>7.0168657555931296E-2</v>
       </c>
       <c r="E5" s="3">
-        <v>7.8541718941396693E-2</v>
+        <v>7.2586824188370397E-2</v>
       </c>
       <c r="F5" s="3">
-        <v>8.6584532526834193E-2</v>
+        <v>7.2057667662022304E-2</v>
       </c>
       <c r="G5" s="3">
-        <v>7.2586824188370397E-2</v>
+        <v>7.1064000000000002E-2</v>
       </c>
       <c r="H5" s="3">
-        <v>7.2057667662022304E-2</v>
-      </c>
-      <c r="I5" s="3">
-        <v>7.1064000000000002E-2</v>
-      </c>
-      <c r="J5" s="3">
-        <v>7.1871000000000004E-2</v>
-      </c>
-      <c r="K5" s="3">
         <v>8.0008655310025101E-2</v>
       </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2">
+        <f>MIN(C5:H5)</f>
+        <v>6.6675823087499406E-2</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="0"/>
+        <v>7.0168657555931296E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>5.16944788531853E-3</v>
       </c>
       <c r="D6" s="3">
         <v>6.8975961211180502E-3</v>
       </c>
       <c r="E6" s="3">
-        <v>4.7252371008553104E-3</v>
+        <v>6.38878098627096E-3</v>
       </c>
       <c r="F6" s="3">
-        <v>4.6865375637550697E-3</v>
+        <v>6.4431320476127599E-3</v>
       </c>
       <c r="G6" s="3">
-        <v>6.38878098627096E-3</v>
+        <v>6.3220000000000004E-3</v>
       </c>
       <c r="H6" s="3">
-        <v>6.4431320476127599E-3</v>
-      </c>
-      <c r="I6" s="3">
+        <v>7.0074009248443101E-3</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="2">
+        <f>MIN(C6:H6)</f>
+        <v>5.16944788531853E-3</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="0"/>
         <v>6.3220000000000004E-3</v>
       </c>
-      <c r="J6" s="3">
-        <v>6.3730000000000002E-3</v>
-      </c>
-      <c r="K6" s="3">
-        <v>7.0074009248443101E-3</v>
-      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="1"/>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>1.33162091372986E-2</v>
       </c>
       <c r="D7" s="3">
         <v>1.87132871527219E-2</v>
       </c>
       <c r="E7" s="3">
-        <v>1.2315954428799999E-2</v>
+        <v>1.82448330848928E-2</v>
       </c>
       <c r="F7" s="3">
-        <v>1.22683276498889E-2</v>
+        <v>1.8308465716012901E-2</v>
       </c>
       <c r="G7" s="3">
-        <v>1.82448330848928E-2</v>
+        <v>1.8013999999999999E-2</v>
       </c>
       <c r="H7" s="3">
-        <v>1.8308465716012901E-2</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1.8013999999999999E-2</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1.8162000000000001E-2</v>
-      </c>
-      <c r="K7" s="3">
         <v>1.6231231621822498E-2</v>
       </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2">
+        <f>MIN(C7:H7)</f>
+        <v>1.33162091372986E-2</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.6231231621822498E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1"/>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>2.2939751865321299E-2</v>
       </c>
       <c r="D8" s="3">
         <v>3.3806039850902803E-2</v>
       </c>
       <c r="E8" s="3">
-        <v>2.1302945397224399E-2</v>
+        <v>3.3435558533522799E-2</v>
       </c>
       <c r="F8" s="3">
-        <v>2.1242389763329001E-2</v>
+        <v>3.3530678351661097E-2</v>
       </c>
       <c r="G8" s="3">
-        <v>3.3435558533522799E-2</v>
+        <v>3.2995999999999998E-2</v>
       </c>
       <c r="H8" s="3">
-        <v>3.3530678351661097E-2</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3.2995999999999998E-2</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3.3292000000000002E-2</v>
-      </c>
-      <c r="K8" s="3">
         <v>2.6154409539838101E-2</v>
       </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2">
+        <f>MIN(C8:H8)</f>
+        <v>2.2939751865321299E-2</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6154409539838101E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1"/>
       <c r="B9">
         <v>12</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>3.7548224193323397E-2</v>
       </c>
       <c r="D9" s="3">
         <v>6.0702657337547497E-2</v>
       </c>
       <c r="E9" s="3">
-        <v>3.3414587971924502E-2</v>
+        <v>5.9856701761087899E-2</v>
       </c>
       <c r="F9" s="3">
-        <v>3.3281048071495199E-2</v>
+        <v>5.9958734756888697E-2</v>
       </c>
       <c r="G9" s="3">
-        <v>5.9856701761087899E-2</v>
+        <v>5.8939999999999999E-2</v>
       </c>
       <c r="H9" s="3">
-        <v>5.9958734756888697E-2</v>
-      </c>
-      <c r="I9" s="3">
-        <v>5.8939999999999999E-2</v>
-      </c>
-      <c r="J9" s="3">
-        <v>5.9547999999999997E-2</v>
-      </c>
-      <c r="K9" s="3">
         <v>4.0267109277944101E-2</v>
       </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2">
+        <f>MIN(C9:H9)</f>
+        <v>3.7548224193323397E-2</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="0"/>
+        <v>4.0267109277944101E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>1.7477529625225301E-2</v>
       </c>
       <c r="D10" s="3">
         <v>1.7702058127129602E-2</v>
       </c>
       <c r="E10" s="3">
-        <v>1.6132506991700199E-2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1.6702158044844598E-2</v>
+        <v>1.7046518057933301E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1.6350631074307499E-2</v>
       </c>
       <c r="G10" s="3">
-        <v>1.7046518057933301E-2</v>
+        <v>1.6414999999999999E-2</v>
       </c>
       <c r="H10" s="3">
+        <v>1.7781485075310001E-2</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2">
+        <f>MIN(C10:H10)</f>
         <v>1.6350631074307499E-2</v>
       </c>
-      <c r="I10" s="3">
-        <v>1.6414999999999999E-2</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1.6597000000000001E-2</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1.7781485075310001E-2</v>
+      <c r="K10" s="5">
+        <f t="shared" si="0"/>
+        <v>1.6350631074307499E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1"/>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>3.4894777377612297E-2</v>
       </c>
       <c r="D11" s="3">
         <v>3.6399977177153903E-2</v>
       </c>
       <c r="E11" s="3">
-        <v>3.5403185619751601E-2</v>
+        <v>3.7098641660479298E-2</v>
       </c>
       <c r="F11" s="3">
-        <v>3.8149928641266602E-2</v>
+        <v>3.5971479286140799E-2</v>
       </c>
       <c r="G11" s="3">
-        <v>3.7098641660479298E-2</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3.5971479286140799E-2</v>
-      </c>
-      <c r="I11" s="3">
         <v>3.6017E-2</v>
       </c>
-      <c r="J11" s="3">
-        <v>3.6361999999999998E-2</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="H11" s="4">
         <v>3.3979853750842497E-2</v>
       </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2">
+        <f>MIN(C11:H11)</f>
+        <v>3.3979853750842497E-2</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="0"/>
+        <v>3.3979853750842497E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1"/>
       <c r="B12">
         <v>6</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>4.9858637131365603E-2</v>
       </c>
       <c r="D12" s="3">
         <v>5.5378245225138803E-2</v>
       </c>
       <c r="E12" s="3">
-        <v>5.3429557943282899E-2</v>
+        <v>5.3067539729853903E-2</v>
       </c>
       <c r="F12" s="3">
-        <v>5.9155442870645399E-2</v>
+        <v>5.28111886634808E-2</v>
       </c>
       <c r="G12" s="3">
-        <v>5.3067539729853903E-2</v>
+        <v>5.3255999999999998E-2</v>
       </c>
       <c r="H12" s="3">
+        <v>5.7594994970297603E-2</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2">
+        <f>MIN(C12:H12)</f>
+        <v>4.9858637131365603E-2</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="0"/>
         <v>5.28111886634808E-2</v>
       </c>
-      <c r="I12" s="3">
-        <v>5.3255999999999998E-2</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5.2985999999999998E-2</v>
-      </c>
-      <c r="K12" s="3">
-        <v>5.7594994970297603E-2</v>
-      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>8.3989395351012297E-2</v>
       </c>
       <c r="D13" s="3">
         <v>9.6388721102213096E-2</v>
       </c>
       <c r="E13" s="3">
-        <v>7.4341029579811202E-2</v>
+        <v>9.2079363259733399E-2</v>
       </c>
       <c r="F13" s="3">
-        <v>8.0378963239591705E-2</v>
+        <v>9.1960615235601798E-2</v>
       </c>
       <c r="G13" s="3">
-        <v>9.2079363259733399E-2</v>
+        <v>9.2357999999999996E-2</v>
       </c>
       <c r="H13" s="3">
+        <v>0.10788402277049799</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2">
+        <f>MIN(C13:H13)</f>
+        <v>8.3989395351012297E-2</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="0"/>
         <v>9.1960615235601798E-2</v>
       </c>
-      <c r="I13" s="3">
-        <v>9.2357999999999996E-2</v>
-      </c>
-      <c r="J13" s="3">
-        <v>9.2133000000000007E-2</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.10788402277049799</v>
-      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>1.6524290174054101E-2</v>
       </c>
       <c r="D14" s="3">
         <v>1.6680201977321799E-2</v>
       </c>
       <c r="E14" s="3">
-        <v>1.6591781793921699E-2</v>
+        <v>1.6996996873115001E-2</v>
       </c>
       <c r="F14" s="3">
-        <v>1.70020002100915E-2</v>
+        <v>1.6735637523330099E-2</v>
       </c>
       <c r="G14" s="3">
-        <v>1.6996996873115001E-2</v>
+        <v>1.7125000000000001E-2</v>
       </c>
       <c r="H14" s="3">
-        <v>1.6735637523330099E-2</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1.7125000000000001E-2</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1.6931999999999999E-2</v>
-      </c>
-      <c r="K14" s="3">
         <v>2.1145594161587799E-2</v>
       </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2">
+        <f>MIN(C14:H14)</f>
+        <v>1.6524290174054101E-2</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="0"/>
+        <v>1.6680201977321799E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="1"/>
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>3.32469939558655E-2</v>
       </c>
       <c r="D15" s="3">
         <v>3.42378361725783E-2</v>
       </c>
       <c r="E15" s="3">
-        <v>3.2933385252881801E-2</v>
+        <v>3.3802700578392603E-2</v>
       </c>
       <c r="F15" s="3">
-        <v>3.3279830357660002E-2</v>
+        <v>3.3706340907872299E-2</v>
       </c>
       <c r="G15" s="3">
-        <v>3.3802700578392603E-2</v>
+        <v>3.4641999999999999E-2</v>
       </c>
       <c r="H15" s="3">
+        <v>5.02484554098971E-2</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2">
+        <f>MIN(C15:H15)</f>
+        <v>3.32469939558655E-2</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="0"/>
         <v>3.3706340907872299E-2</v>
       </c>
-      <c r="I15" s="3">
-        <v>3.4641999999999999E-2</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3.3835999999999998E-2</v>
-      </c>
-      <c r="K15" s="3">
-        <v>5.02484554098971E-2</v>
-      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1"/>
       <c r="B16">
         <v>6</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>5.0263138547217603E-2</v>
       </c>
       <c r="D16" s="3">
         <v>5.4264289985040202E-2</v>
       </c>
       <c r="E16" s="3">
-        <v>4.9131026216511997E-2</v>
+        <v>5.2649990092715697E-2</v>
       </c>
       <c r="F16" s="3">
-        <v>4.9584949614170502E-2</v>
+        <v>5.2546299289239901E-2</v>
       </c>
       <c r="G16" s="3">
-        <v>5.2649990092715697E-2</v>
+        <v>5.3430999999999999E-2</v>
       </c>
       <c r="H16" s="3">
+        <v>8.8663682748562303E-2</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="2">
+        <f>MIN(C16:H16)</f>
+        <v>5.0263138547217603E-2</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="0"/>
         <v>5.2546299289239901E-2</v>
       </c>
-      <c r="I16" s="3">
-        <v>5.3430999999999999E-2</v>
-      </c>
-      <c r="J16" s="3">
-        <v>5.2704000000000001E-2</v>
-      </c>
-      <c r="K16" s="3">
-        <v>8.8663682748562303E-2</v>
-      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1"/>
       <c r="B17">
         <v>12</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>7.1853937458620898E-2</v>
       </c>
       <c r="D17" s="3">
         <v>8.3193438916980597E-2</v>
       </c>
       <c r="E17" s="3">
-        <v>7.1524744874228205E-2</v>
+        <v>7.7504380482231697E-2</v>
       </c>
       <c r="F17" s="3">
-        <v>7.3673802040286507E-2</v>
+        <v>7.7466002998907699E-2</v>
       </c>
       <c r="G17" s="3">
-        <v>7.7504380482231697E-2</v>
+        <v>7.9008999999999996E-2</v>
       </c>
       <c r="H17" s="3">
+        <v>0.12864341129045401</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="2">
+        <f>MIN(C17:H17)</f>
+        <v>7.1853937458620898E-2</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="0"/>
         <v>7.7466002998907699E-2</v>
       </c>
-      <c r="I17" s="3">
-        <v>7.9008999999999996E-2</v>
-      </c>
-      <c r="J17" s="3">
-        <v>7.7640000000000001E-2</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0.12864341129045401</v>
-      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
+      <c r="A18" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>1.2004381506379501E-2</v>
       </c>
       <c r="D18" s="3">
         <v>1.2033382869384599E-2</v>
       </c>
       <c r="E18" s="3">
-        <v>1.0688136667787999E-2</v>
+        <v>1.1749217467121299E-2</v>
       </c>
       <c r="F18" s="3">
-        <v>1.10628448296554E-2</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1.1749217467121299E-2</v>
+        <v>1.1518863722678799E-2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1.1519E-2</v>
       </c>
       <c r="H18" s="3">
+        <v>1.33759574144117E-2</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="2">
+        <f>MIN(C18:H18)</f>
         <v>1.1518863722678799E-2</v>
       </c>
-      <c r="I18" s="3">
-        <v>1.1519E-2</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1.1532000000000001E-2</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1.33759574144117E-2</v>
+      <c r="K18" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1518863722678799E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1"/>
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>2.3848433156183398E-2</v>
       </c>
       <c r="D19" s="3">
         <v>2.4113807382263201E-2</v>
       </c>
       <c r="E19" s="3">
-        <v>2.0131618506355701E-2</v>
+        <v>2.4428000993482701E-2</v>
       </c>
       <c r="F19" s="3">
-        <v>2.08290254857985E-2</v>
+        <v>2.39916436990599E-2</v>
       </c>
       <c r="G19" s="3">
-        <v>2.4428000993482701E-2</v>
+        <v>2.3986E-2</v>
       </c>
       <c r="H19" s="3">
-        <v>2.39916436990599E-2</v>
-      </c>
-      <c r="I19" s="3">
+        <v>2.8204306073992401E-2</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="2">
+        <f>MIN(C19:H19)</f>
+        <v>2.3848433156183398E-2</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="0"/>
         <v>2.3986E-2</v>
       </c>
-      <c r="J19" s="3">
-        <v>2.3802E-2</v>
-      </c>
-      <c r="K19" s="3">
-        <v>2.8204306073992401E-2</v>
-      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
       <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>3.1978048393643599E-2</v>
       </c>
       <c r="D20" s="3">
         <v>3.2998842550099598E-2</v>
       </c>
       <c r="E20" s="3">
-        <v>2.3800873280205199E-2</v>
+        <v>3.33892214604746E-2</v>
       </c>
       <c r="F20" s="3">
-        <v>2.2627526933444199E-2</v>
+        <v>3.2627189044604099E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>3.33892214604746E-2</v>
+        <v>3.2497999999999999E-2</v>
       </c>
       <c r="H20" s="3">
-        <v>3.2627189044604099E-2</v>
-      </c>
-      <c r="I20" s="3">
+        <v>3.8373663145588599E-2</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="2">
+        <f>MIN(C20:H20)</f>
+        <v>3.1978048393643599E-2</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="0"/>
         <v>3.2497999999999999E-2</v>
       </c>
-      <c r="J20" s="3">
-        <v>3.1753999999999998E-2</v>
-      </c>
-      <c r="K20" s="3">
-        <v>3.8373663145588599E-2</v>
-      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1"/>
       <c r="B21">
         <v>12</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>3.9426399161931802E-2</v>
       </c>
       <c r="D21" s="3">
         <v>4.1141017964469603E-2</v>
       </c>
       <c r="E21" s="3">
-        <v>2.13424004679552E-2</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1.9830465751337598E-2</v>
+        <v>4.0458863073124497E-2</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3.9323469803735002E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>4.0458863073124497E-2</v>
+        <v>3.9505999999999999E-2</v>
       </c>
       <c r="H21" s="3">
+        <v>4.5180871533671702E-2</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="2">
+        <f>MIN(C21:H21)</f>
         <v>3.9323469803735002E-2</v>
       </c>
-      <c r="I21" s="3">
-        <v>3.9505999999999999E-2</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3.9003000000000003E-2</v>
-      </c>
-      <c r="K21" s="3">
-        <v>4.5180871533671702E-2</v>
+      <c r="K21" s="5">
+        <f t="shared" si="0"/>
+        <v>3.9323469803735002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
+      <c r="A22" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>1.32414244470967E-2</v>
       </c>
       <c r="D22" s="3">
         <v>1.3488989852691501E-2</v>
       </c>
-      <c r="E22" s="3">
-        <v>1.42195411345881E-2</v>
+      <c r="E22" s="4">
+        <v>1.2805153057198201E-2</v>
       </c>
       <c r="F22" s="3">
-        <v>1.38494787205416E-2</v>
+        <v>1.31958002833672E-2</v>
       </c>
       <c r="G22" s="3">
+        <v>1.3398999999999999E-2</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1.55635274053521E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.13381000000000001</v>
+      </c>
+      <c r="J22" s="2">
+        <f>MIN(C22:I22)</f>
         <v>1.2805153057198201E-2</v>
       </c>
-      <c r="H22" s="3">
-        <v>1.31958002833672E-2</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1.3398999999999999E-2</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1.3121000000000001E-2</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1.55635274053521E-2</v>
+      <c r="K22" s="5">
+        <f>MIN(D22:I22)</f>
+        <v>1.2805153057198201E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="1"/>
       <c r="B23">
         <v>3</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>2.9603584334398102E-2</v>
       </c>
       <c r="D23" s="3">
         <v>2.9911506206247301E-2</v>
       </c>
-      <c r="E23" s="3">
-        <v>3.3857225740731502E-2</v>
+      <c r="E23" s="6">
+        <v>2.9275547625191099E-2</v>
       </c>
       <c r="F23" s="3">
-        <v>3.4844230884228201E-2</v>
+        <v>2.93413940480097E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>2.9275547625191099E-2</v>
+        <v>2.9568000000000001E-2</v>
       </c>
       <c r="H23" s="3">
-        <v>2.93413940480097E-2</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2.9568000000000001E-2</v>
-      </c>
-      <c r="J23" s="3">
-        <v>2.9352E-2</v>
-      </c>
-      <c r="K23" s="3">
         <v>3.5016334529514803E-2</v>
       </c>
+      <c r="I23" s="4">
+        <v>2.4534E-2</v>
+      </c>
+      <c r="J23" s="2">
+        <f>MIN(C23:I23)</f>
+        <v>2.4534E-2</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" ref="K23:K29" si="1">MIN(D23:I23)</f>
+        <v>2.4534E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="1"/>
       <c r="B24">
         <v>6</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>4.9439842865242001E-2</v>
       </c>
       <c r="D24" s="3">
         <v>5.0559522593495297E-2</v>
       </c>
-      <c r="E24" s="3">
-        <v>5.8561570588689903E-2</v>
+      <c r="E24" s="6">
+        <v>4.8781700060430699E-2</v>
       </c>
       <c r="F24" s="3">
-        <v>6.1914139707075801E-2</v>
+        <v>4.9082506908156798E-2</v>
       </c>
       <c r="G24" s="3">
-        <v>4.8781700060430699E-2</v>
+        <v>4.8987999999999997E-2</v>
       </c>
       <c r="H24" s="3">
-        <v>4.9082506908156798E-2</v>
-      </c>
-      <c r="I24" s="3">
-        <v>4.8987999999999997E-2</v>
-      </c>
-      <c r="J24" s="3">
-        <v>4.8937000000000001E-2</v>
-      </c>
-      <c r="K24" s="3">
         <v>5.69310993915077E-2</v>
       </c>
+      <c r="I24" s="4">
+        <v>4.3189999999999999E-2</v>
+      </c>
+      <c r="J24" s="2">
+        <f>MIN(C24:I24)</f>
+        <v>4.3189999999999999E-2</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="1"/>
+        <v>4.3189999999999999E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1"/>
       <c r="B25">
         <v>12</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="6">
         <v>7.5469644919854098E-2</v>
       </c>
       <c r="D25" s="3">
         <v>8.1844964256578098E-2</v>
       </c>
       <c r="E25" s="3">
-        <v>9.2736844964119602E-2</v>
+        <v>8.1625533192480199E-2</v>
       </c>
       <c r="F25" s="3">
-        <v>9.9036051073653597E-2</v>
+        <v>8.1845782984833998E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>8.1625533192480199E-2</v>
+        <v>8.2072000000000006E-2</v>
       </c>
       <c r="H25" s="3">
-        <v>8.1845782984833998E-2</v>
-      </c>
-      <c r="I25" s="3">
-        <v>8.2072000000000006E-2</v>
-      </c>
-      <c r="J25" s="3">
-        <v>8.1848000000000004E-2</v>
-      </c>
-      <c r="K25" s="3">
         <v>0.105037393310405</v>
       </c>
+      <c r="I25" s="4">
+        <v>7.1675000000000003E-2</v>
+      </c>
+      <c r="J25" s="2">
+        <f>MIN(C25:I25)</f>
+        <v>7.1675000000000003E-2</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="1"/>
+        <v>7.1675000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.93189999999999995</v>
+      </c>
+      <c r="D26" s="7">
+        <v>9.3529341819608997E-3</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4.6142760505752702E-3</v>
+      </c>
+      <c r="F26" s="7">
+        <v>5.9110792183848697E-3</v>
+      </c>
+      <c r="G26" s="7">
+        <v>4.8100856592359197E-3</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1.0194062850386E-2</v>
+      </c>
+      <c r="I26" s="3">
+        <v>9.3189999999999992E-3</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" ref="J26:J29" si="2">MIN(C26:I26)</f>
+        <v>4.6142760505752702E-3</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="1"/>
+        <v>4.6142760505752702E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2.3961E-2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2.4487785721946698E-2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1.8038241915604599E-2</v>
+      </c>
+      <c r="F27" s="7">
+        <v>2.0989729131250402E-2</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1.90590851539248E-2</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3.4097485778613101E-2</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2.1422E-2</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8038241915604599E-2</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8038241915604599E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3.9711999999999997E-2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4.1381662194457103E-2</v>
+      </c>
+      <c r="E28" s="8">
+        <v>3.6196688544241899E-2</v>
+      </c>
+      <c r="F28" s="7">
+        <v>3.8092783682803097E-2</v>
+      </c>
+      <c r="G28" s="7">
+        <v>3.6385994148785697E-2</v>
+      </c>
+      <c r="H28" s="7">
+        <v>6.5196180549768404E-2</v>
+      </c>
+      <c r="I28" s="3">
+        <v>3.6872000000000002E-2</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="2"/>
+        <v>3.6196688544241899E-2</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="1"/>
+        <v>3.6196688544241899E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5.0025E-2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4.7284022882509102E-2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>5.3393893575637098E-2</v>
+      </c>
+      <c r="F29" s="7">
+        <v>5.1117378241925603E-2</v>
+      </c>
+      <c r="G29" s="7">
+        <v>5.2025784613354401E-2</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0.10560433760809</v>
+      </c>
+      <c r="I29" s="4">
+        <v>4.4207000000000003E-2</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="2"/>
+        <v>4.4207000000000003E-2</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="1"/>
+        <v>4.4207000000000003E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
